--- a/Clase_11_Maquinas_Virtuales/Triviño_David/Ejercicio de algoritmos de planificación - Práctica.xlsx
+++ b/Clase_11_Maquinas_Virtuales/Triviño_David/Ejercicio de algoritmos de planificación - Práctica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban\Google Drive\CTD\Introducción a la Informática\camada8_roberto\Clase_11_Maquinas_Virtuales\Triviño_David\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C36A44E-0FB6-4BD4-ACBB-EB507BF39DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE35DDB4-8E9B-483B-8910-56F9039878B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIFO" sheetId="1" r:id="rId1"/>
@@ -595,7 +595,7 @@
     <col min="70" max="70" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,7 +606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -617,7 +617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -628,7 +628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -639,7 +639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>6</v>
       </c>
@@ -650,7 +650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
@@ -661,7 +661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>8</v>
       </c>
@@ -672,7 +672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>9</v>
       </c>
@@ -683,7 +683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
@@ -694,7 +694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>11</v>
       </c>
@@ -705,7 +705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C11" s="12">
         <f>SUM(C2:C10)</f>
         <v>51</v>
@@ -1219,7 +1219,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="3:54" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:54" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AB47" s="1" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="3:54" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:54" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AB48" s="2" t="s">
         <v>3</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="3:54" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:54" ht="12.75" x14ac:dyDescent="0.2">
       <c r="AB49" s="4" t="s">
         <v>4</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="3:54" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:54" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>0</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="3:54" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:54" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C51" s="2" t="s">
         <v>3</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="3:54" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:54" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C52" s="4" t="s">
         <v>4</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="3:54" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:54" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C53" s="5" t="s">
         <v>5</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="3:54" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:54" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C54" s="6" t="s">
         <v>6</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="3:54" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:54" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C55" s="7" t="s">
         <v>7</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="3:54" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:54" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C56" s="8" t="s">
         <v>8</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="3:54" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:54" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C57" s="9" t="s">
         <v>9</v>
       </c>
@@ -1396,7 +1396,7 @@
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
     </row>
-    <row r="58" spans="3:54" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:54" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C58" s="10" t="s">
         <v>10</v>
       </c>
@@ -1409,14 +1409,14 @@
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
     </row>
-    <row r="59" spans="3:54" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:54" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C59" s="11" t="s">
         <v>11</v>
       </c>
       <c r="P59" s="11"/>
       <c r="Q59" s="11"/>
     </row>
-    <row r="60" spans="3:54" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:54" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D60" s="13">
         <v>0</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="3:54" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:54" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="4"/>
@@ -2502,8 +2502,8 @@
   </sheetPr>
   <dimension ref="A1:BB1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2512,6 +2512,7 @@
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="54" width="2.85546875" customWidth="1"/>
+    <col min="55" max="55" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
@@ -3312,17 +3313,11 @@
         <v>4</v>
       </c>
       <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
       <c r="U26" s="14"/>
@@ -3337,16 +3332,13 @@
       <c r="C27" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
       <c r="U27" s="14"/>
@@ -3388,9 +3380,8 @@
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
+      <c r="L29" s="39"/>
       <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
@@ -3533,157 +3524,157 @@
         <v>14</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L34">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N34">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O34">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P34">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R34">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S34">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U34">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V34">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W34">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X34">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y34">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z34">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA34">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB34">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC34">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AD34">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE34">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF34">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG34">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH34">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AI34">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AJ34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AK34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AL34">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AM34">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AN34">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AO34">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AP34">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AQ34">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AR34">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AS34">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AT34">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AU34">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AV34">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AW34">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AX34">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AY34">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AZ34">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BA34">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BB34">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="3:54" x14ac:dyDescent="0.2">
@@ -23996,12 +23987,12 @@
     <col min="4" max="54" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -24012,7 +24003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -24023,7 +24014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -24034,7 +24025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
@@ -24045,7 +24036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
@@ -24056,7 +24047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>7</v>
       </c>
@@ -24067,7 +24058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>8</v>
       </c>
@@ -24078,7 +24069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>9</v>
       </c>
@@ -24090,7 +24081,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
@@ -24104,7 +24095,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
@@ -24119,7 +24110,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C12">
         <f>SUM(C3:C11)</f>
         <v>51</v>
@@ -24129,7 +24120,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -24142,7 +24133,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
@@ -24169,7 +24160,7 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="15"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C15" s="4" t="s">
         <v>4</v>
       </c>
@@ -24802,7 +24793,7 @@
     <col min="49" max="50" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24813,7 +24804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -24824,7 +24815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -24835,7 +24826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -24846,7 +24837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>6</v>
       </c>
@@ -24857,7 +24848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
@@ -24868,7 +24859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>8</v>
       </c>
@@ -24879,7 +24870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>9</v>
       </c>
@@ -24890,7 +24881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
@@ -24901,7 +24892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>11</v>
       </c>
@@ -25389,8 +25380,8 @@
   </sheetPr>
   <dimension ref="A1:AU44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z39" sqref="Z39"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25401,7 +25392,7 @@
     <col min="4" max="48" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25412,7 +25403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -25423,7 +25414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -25434,7 +25425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
@@ -25445,7 +25436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>6</v>
       </c>
@@ -25456,7 +25447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
@@ -25467,7 +25458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>8</v>
       </c>
@@ -25478,7 +25469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>9</v>
       </c>
@@ -25489,7 +25480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
@@ -25500,7 +25491,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>11</v>
       </c>

--- a/Clase_11_Maquinas_Virtuales/Triviño_David/Ejercicio de algoritmos de planificación - Práctica.xlsx
+++ b/Clase_11_Maquinas_Virtuales/Triviño_David/Ejercicio de algoritmos de planificación - Práctica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban\Google Drive\CTD\Introducción a la Informática\camada8_roberto\Clase_11_Maquinas_Virtuales\Triviño_David\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE35DDB4-8E9B-483B-8910-56F9039878B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACB56B6-407E-4ACC-BA61-3E61915BA0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIFO" sheetId="1" r:id="rId1"/>
@@ -1636,7 +1636,7 @@
   </sheetPr>
   <dimension ref="A1:BB44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -2502,7 +2502,7 @@
   </sheetPr>
   <dimension ref="A1:BB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
@@ -23975,7 +23975,7 @@
   </sheetPr>
   <dimension ref="A1:BB35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
